--- a/Data/EC/NIT-8305065090.xlsx
+++ b/Data/EC/NIT-8305065090.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D988C6C-CF9F-4AFB-804F-B7E8521B20E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E358E55-30DE-4D08-A7ED-42A4C1B34F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{45B63AA7-E4D5-4696-A998-4D5D3483F268}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8FEF9318-BF74-4A4F-B786-E8D1A1B3148B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,22 +71,22 @@
     <t>CLAUDIA ROCIO ARANGO SANCHEZ</t>
   </si>
   <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
     <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -500,7 +500,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D0F9EF7-6188-1919-CF3E-E34C85FDA18F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{997F4165-6141-6418-8C6E-FBAE6BF2BFDB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -851,7 +851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A2DDBB-251B-489B-B7D0-2E9EB110A92A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC01F52-25EF-4B89-A3A3-DDA1C110BDFB}">
   <dimension ref="B2:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1029,7 +1029,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>56000</v>
+        <v>35467</v>
       </c>
       <c r="G16" s="18">
         <v>1400000</v>
@@ -1144,7 +1144,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="24">
-        <v>35467</v>
+        <v>56000</v>
       </c>
       <c r="G21" s="24">
         <v>1400000</v>
